--- a/report/Martingale vs AntiMartingale.xlsx
+++ b/report/Martingale vs AntiMartingale.xlsx
@@ -25,7 +25,7 @@
     <t>Annual Return</t>
   </si>
   <si>
-    <t>2000-2022</t>
+    <t>2000-2021</t>
   </si>
   <si>
     <t>SPY-All-In</t>
